--- a/Lab. TurboMaq/Lab 5 - Associação paralelo/dados5.xlsx
+++ b/Lab. TurboMaq/Lab 5 - Associação paralelo/dados5.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNESP\EngMec-UNESP\Lab. TurboMaq\Lab 4 - Associação de bombas em série\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNESP\EngMec-UNESP\Lab. TurboMaq\Lab 5 - Associação paralelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E04DBC5-02A2-4A47-B569-D5E080AD5394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BBBA3E-A6C3-4015-9E53-4FFE63D36BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{FFCB071D-4538-4BF8-BB15-FAFD4FD6700F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{FFCB071D-4538-4BF8-BB15-FAFD4FD6700F}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="5" r:id="rId1"/>
     <sheet name="v2" sheetId="6" r:id="rId2"/>
     <sheet name="v12" sheetId="1" r:id="rId3"/>
     <sheet name="v1_sozinha" sheetId="7" r:id="rId4"/>
-    <sheet name="instr" sheetId="3" r:id="rId5"/>
+    <sheet name="v12p" sheetId="8" r:id="rId5"/>
+    <sheet name="instr" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>medida</t>
   </si>
@@ -72,6 +73,24 @@
   </si>
   <si>
     <t>Drot</t>
+  </si>
+  <si>
+    <t>pe1</t>
+  </si>
+  <si>
+    <t>ps1</t>
+  </si>
+  <si>
+    <t>pe2</t>
+  </si>
+  <si>
+    <t>ps2</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
   </si>
 </sst>
 </file>
@@ -924,7 +943,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7558BC-30FA-4EB2-B8AC-2DEC61ACA48C}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,6 +1423,327 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970D62C8-F6EC-4C00-8E8B-D8AE67CE3658}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+      <c r="F2">
+        <v>28.25</v>
+      </c>
+      <c r="G2">
+        <v>1765</v>
+      </c>
+      <c r="H2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>25.65</v>
+      </c>
+      <c r="G3">
+        <v>17657</v>
+      </c>
+      <c r="H3">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>1.05</v>
+      </c>
+      <c r="F4">
+        <v>23.69</v>
+      </c>
+      <c r="G4">
+        <v>1769</v>
+      </c>
+      <c r="H4">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1.075</v>
+      </c>
+      <c r="F5">
+        <v>21.51</v>
+      </c>
+      <c r="G5">
+        <v>1771</v>
+      </c>
+      <c r="H5">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>19.68</v>
+      </c>
+      <c r="G6">
+        <v>1772</v>
+      </c>
+      <c r="H6">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>114</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>1.125</v>
+      </c>
+      <c r="F7">
+        <v>17.64</v>
+      </c>
+      <c r="G7">
+        <v>1775</v>
+      </c>
+      <c r="H7">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F8">
+        <v>15.6</v>
+      </c>
+      <c r="G8">
+        <v>1775</v>
+      </c>
+      <c r="H8">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>118</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1.175</v>
+      </c>
+      <c r="F9">
+        <v>13.77</v>
+      </c>
+      <c r="G9">
+        <v>1779</v>
+      </c>
+      <c r="H9">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10">
+        <v>10.8</v>
+      </c>
+      <c r="G10">
+        <v>1782</v>
+      </c>
+      <c r="H10">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="F11">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G11">
+        <v>1785</v>
+      </c>
+      <c r="H11">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1.2</v>
+      </c>
+      <c r="F12">
+        <v>6.6</v>
+      </c>
+      <c r="G12">
+        <v>1790</v>
+      </c>
+      <c r="H12">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="F13">
+        <v>4.59</v>
+      </c>
+      <c r="G13">
+        <v>1788</v>
+      </c>
+      <c r="H13">
+        <v>1778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D670F230-A41E-411A-B930-C8319ECA6DBA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
